--- a/ky/downloads/data-excel/7.1.2.xlsx
+++ b/ky/downloads/data-excel/7.1.2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="104">
   <si>
     <t>7.1.2 Доля населения, использующего в основном чистые виды топлива и технологии</t>
   </si>
@@ -31,15 +31,6 @@
     <t>7.2.1 Негизинен отундун таза түрлөрүн жана технологияларын пайдаланган калктын үлүшү</t>
   </si>
   <si>
-    <t xml:space="preserve"> Көп көрсөткүчтүү кластердик изилдөөнүн маалыматтары боюнча, 2018-ж.</t>
-  </si>
-  <si>
-    <t>По данным кластерного обследования по многим показателям, 2018г.</t>
-  </si>
-  <si>
-    <t>According to the cluster survey in many respects, 2018.</t>
-  </si>
-  <si>
     <t>7.1.2 Proportion of population with primary reliance on clean fuels and technology</t>
   </si>
   <si>
@@ -305,6 +296,106 @@
   </si>
   <si>
     <t>Women</t>
+  </si>
+  <si>
+    <t>(пайыз менен)</t>
+  </si>
+  <si>
+    <t>(в процентах)</t>
+  </si>
+  <si>
+    <t>(in percent)</t>
+  </si>
+  <si>
+    <t>Үй чарбалардын бюджеттерин жана жумушчу күчтөрдү интеграцияланган тандама текшерүүсү</t>
+  </si>
+  <si>
+    <t>Интегрированное выборочное обследование бюджетов домашних хозяйств и рабочей силы.</t>
+  </si>
+  <si>
+    <t>Integrated sample survey of household budgets and labor.</t>
+  </si>
+  <si>
+    <r>
+      <t>2018</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Көп көрсөткүчтүү кластердик изилдөөнүн маалыматтары боюнча, 2018-ж.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>По данным кластерного обследования по многим показателям, КОМП-2018г.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>According to Multiple Indicator Cluster Survey, 2018.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -314,7 +405,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -424,6 +515,41 @@
       <color indexed="8"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <vertAlign val="superscript"/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -490,7 +616,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -593,6 +719,18 @@
     <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -900,20 +1038,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.5703125" customWidth="1"/>
-    <col min="2" max="2" width="38.85546875" customWidth="1"/>
-    <col min="3" max="3" width="34.85546875" customWidth="1"/>
+    <col min="1" max="3" width="35.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -921,771 +1055,871 @@
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2" s="43" t="s">
+        <v>96</v>
+      </c>
       <c r="D2" s="23"/>
       <c r="E2" s="23"/>
     </row>
-    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="24" t="s">
+    <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="23"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B4" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C4" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="26">
-        <v>2018</v>
-      </c>
-      <c r="E3" s="26">
+      <c r="D4" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="E4" s="26">
         <v>2019</v>
       </c>
-      <c r="F3" s="26">
+      <c r="F4" s="26">
         <v>2020</v>
       </c>
-      <c r="G3" s="26">
+      <c r="G4" s="26">
         <v>2021</v>
       </c>
-      <c r="H3" s="26">
+      <c r="H4" s="26">
         <v>2022</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="I4" s="26">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="4">
+        <v>19.2</v>
+      </c>
+      <c r="E5" s="33">
+        <v>22.213001090055855</v>
+      </c>
+      <c r="F5" s="28">
+        <v>22.1</v>
+      </c>
+      <c r="G5" s="33">
+        <v>20.609252058593515</v>
+      </c>
+      <c r="H5" s="33">
+        <v>21.549331200908018</v>
+      </c>
+      <c r="I5" s="33">
+        <v>19.934537450516849</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="9"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="9">
+        <v>47.5</v>
+      </c>
+      <c r="E7" s="34">
+        <v>54.058947164475896</v>
+      </c>
+      <c r="F7" s="29">
+        <v>52.7</v>
+      </c>
+      <c r="G7" s="34">
+        <v>49.918996557644078</v>
+      </c>
+      <c r="H7" s="34">
+        <v>52.326989300763088</v>
+      </c>
+      <c r="I7" s="34">
+        <v>50.663874100635795</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="D8" s="9">
+        <v>3.2</v>
+      </c>
+      <c r="E8" s="34">
+        <v>4.5161833659549311</v>
+      </c>
+      <c r="F8" s="29">
+        <v>5</v>
+      </c>
+      <c r="G8" s="34">
+        <v>3.2348745222055801</v>
+      </c>
+      <c r="H8" s="34">
+        <v>3.6916333239218613</v>
+      </c>
+      <c r="I8" s="34">
+        <v>2.3700432917533609</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="42" t="s">
+        <v>85</v>
+      </c>
+      <c r="B9" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="C9" s="42" t="s">
+        <v>87</v>
+      </c>
+      <c r="D9" s="37"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="40" t="s">
+        <v>88</v>
+      </c>
+      <c r="B10" s="40" t="s">
+        <v>89</v>
+      </c>
+      <c r="C10" s="40" t="s">
+        <v>90</v>
+      </c>
+      <c r="D10" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="E10" s="41">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="F10" s="36">
+        <v>20.5</v>
+      </c>
+      <c r="G10" s="41">
+        <v>19</v>
+      </c>
+      <c r="H10" s="41">
+        <v>20.145701762391958</v>
+      </c>
+      <c r="I10" s="41">
+        <v>18.286297303548345</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="40" t="s">
+        <v>91</v>
+      </c>
+      <c r="B11" s="40" t="s">
+        <v>92</v>
+      </c>
+      <c r="C11" s="40" t="s">
+        <v>93</v>
+      </c>
+      <c r="D11" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="E11" s="41">
+        <v>23.8</v>
+      </c>
+      <c r="F11" s="36">
+        <v>23.6</v>
+      </c>
+      <c r="G11" s="41">
+        <v>22</v>
+      </c>
+      <c r="H11" s="41">
+        <v>22.813769684575334</v>
+      </c>
+      <c r="I11" s="41">
+        <v>21.435728095612447</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="9"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="9">
+        <v>2.8</v>
+      </c>
+      <c r="E13" s="34">
+        <v>5.864811636792167</v>
+      </c>
+      <c r="F13" s="35">
+        <v>4.8</v>
+      </c>
+      <c r="G13" s="34">
+        <v>5.1559902238277919</v>
+      </c>
+      <c r="H13" s="34">
+        <v>6.3300243735913453</v>
+      </c>
+      <c r="I13" s="34">
+        <v>5.3208076880709658</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="9">
+        <v>15.9</v>
+      </c>
+      <c r="E14" s="34">
+        <v>13.680776544147005</v>
+      </c>
+      <c r="F14" s="35">
+        <v>15.8</v>
+      </c>
+      <c r="G14" s="34">
+        <v>13.633824980347788</v>
+      </c>
+      <c r="H14" s="34">
+        <v>14.956994359947711</v>
+      </c>
+      <c r="I14" s="34">
+        <v>16.243664579284424</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="9">
+        <v>13.6</v>
+      </c>
+      <c r="E15" s="34">
+        <v>12.890061791178303</v>
+      </c>
+      <c r="F15" s="35">
+        <v>13.5</v>
+      </c>
+      <c r="G15" s="34">
+        <v>11.552790317821325</v>
+      </c>
+      <c r="H15" s="34">
+        <v>10.216783741088173</v>
+      </c>
+      <c r="I15" s="34">
+        <v>7.6579228718220209</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="9">
+        <v>7.1</v>
+      </c>
+      <c r="E16" s="34">
+        <v>10.162158334933165</v>
+      </c>
+      <c r="F16" s="35">
+        <v>9.6</v>
+      </c>
+      <c r="G16" s="34">
+        <v>8.8577873703751191</v>
+      </c>
+      <c r="H16" s="34">
+        <v>12.292586981974505</v>
+      </c>
+      <c r="I16" s="34">
+        <v>10.866087439303547</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="9">
+        <v>1.3</v>
+      </c>
+      <c r="E17" s="34">
+        <v>2.77050377167726</v>
+      </c>
+      <c r="F17" s="35">
+        <v>2.7</v>
+      </c>
+      <c r="G17" s="34">
+        <v>2.0119585634773185</v>
+      </c>
+      <c r="H17" s="34">
+        <v>1.1904474908258234</v>
+      </c>
+      <c r="I17" s="34">
+        <v>0.79569676176021309</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="9">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="E18" s="34">
+        <v>17.739575752209294</v>
+      </c>
+      <c r="F18" s="35">
+        <v>14.7</v>
+      </c>
+      <c r="G18" s="34">
+        <v>15.717644949630531</v>
+      </c>
+      <c r="H18" s="34">
+        <v>13.453576190228787</v>
+      </c>
+      <c r="I18" s="34">
+        <v>8.2997858070723236</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="9">
+        <v>11.1</v>
+      </c>
+      <c r="E19" s="34">
+        <v>18.259395271843211</v>
+      </c>
+      <c r="F19" s="35">
+        <v>18.2</v>
+      </c>
+      <c r="G19" s="34">
+        <v>17.552936877359489</v>
+      </c>
+      <c r="H19" s="34">
+        <v>16.392955140305855</v>
+      </c>
+      <c r="I19" s="34">
+        <v>15.806671262907001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" s="9">
+        <v>59.9</v>
+      </c>
+      <c r="E20" s="34">
+        <v>74.995693103209206</v>
+      </c>
+      <c r="F20" s="34">
+        <v>74</v>
+      </c>
+      <c r="G20" s="34">
+        <v>68.912341718200238</v>
+      </c>
+      <c r="H20" s="34">
+        <v>73.546822306129386</v>
+      </c>
+      <c r="I20" s="34">
+        <v>68.945554947895289</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" s="9">
+        <v>32.1</v>
+      </c>
+      <c r="E21" s="34">
+        <v>38.30498217589782</v>
+      </c>
+      <c r="F21" s="35">
+        <v>35.1</v>
+      </c>
+      <c r="G21" s="34">
+        <v>31.366000352534748</v>
+      </c>
+      <c r="H21" s="34">
+        <v>33.802493306724259</v>
+      </c>
+      <c r="I21" s="34">
+        <v>30.425502249062689</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B22" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="4">
-        <v>19.2</v>
-      </c>
-      <c r="E4" s="33">
-        <v>22.213001090055855</v>
-      </c>
-      <c r="F4" s="28">
-        <v>22.1</v>
-      </c>
-      <c r="G4" s="33">
-        <v>20.609252058593515</v>
-      </c>
-      <c r="H4" s="33">
-        <v>21.549331200908018</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="9">
-        <v>47.5</v>
-      </c>
-      <c r="E6" s="34">
-        <v>54.058947164475896</v>
-      </c>
-      <c r="F6" s="29">
-        <v>52.7</v>
-      </c>
-      <c r="G6" s="34">
-        <v>49.918996557644078</v>
-      </c>
-      <c r="H6" s="34">
-        <v>52.326989300763088</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="B7" s="10" t="s">
+      <c r="C22" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" s="9"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="B23" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="9">
-        <v>3.2</v>
-      </c>
-      <c r="E7" s="34">
-        <v>4.5161833659549311</v>
-      </c>
-      <c r="F7" s="29">
-        <v>5</v>
-      </c>
-      <c r="G7" s="34">
-        <v>3.2348745222055801</v>
-      </c>
-      <c r="H7" s="34">
-        <v>3.6916333239218613</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="42" t="s">
-        <v>88</v>
-      </c>
-      <c r="B8" s="42" t="s">
-        <v>89</v>
-      </c>
-      <c r="C8" s="42" t="s">
-        <v>90</v>
-      </c>
-      <c r="D8" s="37"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="40" t="s">
-        <v>91</v>
-      </c>
-      <c r="B9" s="40" t="s">
-        <v>92</v>
-      </c>
-      <c r="C9" s="40" t="s">
-        <v>93</v>
-      </c>
-      <c r="D9" s="36" t="s">
-        <v>87</v>
-      </c>
-      <c r="E9" s="41">
-        <v>20.399999999999999</v>
-      </c>
-      <c r="F9" s="36">
-        <v>20.5</v>
-      </c>
-      <c r="G9" s="41">
+      <c r="C23" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" s="9">
+        <v>6.8</v>
+      </c>
+      <c r="E23" s="30">
+        <v>20.788716244301501</v>
+      </c>
+      <c r="F23" s="30">
+        <v>19.887519108246394</v>
+      </c>
+      <c r="G23" s="30">
+        <v>19.269931742606861</v>
+      </c>
+      <c r="H23" s="30">
+        <v>18.990955981012501</v>
+      </c>
+      <c r="I23" s="30">
+        <v>14.976208293126314</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" s="9">
+        <v>10.5</v>
+      </c>
+      <c r="E24" s="30">
+        <v>14.480702024491876</v>
+      </c>
+      <c r="F24" s="30">
+        <v>15.941414849138752</v>
+      </c>
+      <c r="G24" s="30">
+        <v>14.268642571569554</v>
+      </c>
+      <c r="H24" s="30">
+        <v>16.569689731145225</v>
+      </c>
+      <c r="I24" s="30">
+        <v>17.392665205439346</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D25" s="9">
+        <v>11.4</v>
+      </c>
+      <c r="E25" s="30">
+        <v>16.393354289428803</v>
+      </c>
+      <c r="F25" s="30">
+        <v>17.072533008856119</v>
+      </c>
+      <c r="G25" s="30">
+        <v>14.552442380214746</v>
+      </c>
+      <c r="H25" s="30">
+        <v>15.870420531968609</v>
+      </c>
+      <c r="I25" s="30">
+        <v>20.618935335405116</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D26" s="9">
+        <v>19.7</v>
+      </c>
+      <c r="E26" s="30">
+        <v>28.633159586952104</v>
+      </c>
+      <c r="F26" s="30">
+        <v>26.911667767001081</v>
+      </c>
+      <c r="G26" s="30">
+        <v>25.664207466287817</v>
+      </c>
+      <c r="H26" s="30">
+        <v>27.049901009026343</v>
+      </c>
+      <c r="I26" s="30">
+        <v>22.148258554308065</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D27" s="9">
+        <v>38.9</v>
+      </c>
+      <c r="E27" s="30">
+        <v>43.479590221139659</v>
+      </c>
+      <c r="F27" s="30">
+        <v>43.203736587308342</v>
+      </c>
+      <c r="G27" s="30">
+        <v>42.284829735802163</v>
+      </c>
+      <c r="H27" s="30">
+        <v>44.103776883235867</v>
+      </c>
+      <c r="I27" s="30">
+        <v>21.800264520143493</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D28" s="23"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="31"/>
+      <c r="H28" s="31"/>
+      <c r="I28" s="31"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D29" s="17">
+        <v>1</v>
+      </c>
+      <c r="E29" s="30">
+        <v>16.117734241389666</v>
+      </c>
+      <c r="F29" s="30">
+        <v>17.769531006122346</v>
+      </c>
+      <c r="G29" s="30">
+        <v>17.56384209164441</v>
+      </c>
+      <c r="H29" s="30">
+        <v>16.845978740611443</v>
+      </c>
+      <c r="I29" s="30">
+        <v>15.062506611764045</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D30" s="18">
+        <v>2.6</v>
+      </c>
+      <c r="E30" s="30">
+        <v>19.894537472634109</v>
+      </c>
+      <c r="F30" s="30">
+        <v>19.792564409664607</v>
+      </c>
+      <c r="G30" s="30">
+        <v>19.024458198308011</v>
+      </c>
+      <c r="H30" s="30">
+        <v>20.297539691328108</v>
+      </c>
+      <c r="I30" s="30">
+        <v>17.066945082408946</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="B31" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="41">
-        <v>20.145701762391958</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="40" t="s">
-        <v>94</v>
-      </c>
-      <c r="B10" s="40" t="s">
-        <v>95</v>
-      </c>
-      <c r="C10" s="40" t="s">
-        <v>96</v>
-      </c>
-      <c r="D10" s="36" t="s">
-        <v>87</v>
-      </c>
-      <c r="E10" s="41">
-        <v>23.8</v>
-      </c>
-      <c r="F10" s="36">
-        <v>23.6</v>
-      </c>
-      <c r="G10" s="41">
-        <v>22</v>
-      </c>
-      <c r="H10" s="41">
-        <v>22.813769684575334</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" s="9">
-        <v>2.8</v>
-      </c>
-      <c r="E12" s="34">
-        <v>5.864811636792167</v>
-      </c>
-      <c r="F12" s="35">
-        <v>4.8</v>
-      </c>
-      <c r="G12" s="34">
-        <v>5.1559902238277919</v>
-      </c>
-      <c r="H12" s="34">
-        <v>6.3300243735913453</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" s="9">
-        <v>15.9</v>
-      </c>
-      <c r="E13" s="34">
-        <v>13.680776544147005</v>
-      </c>
-      <c r="F13" s="35">
-        <v>15.8</v>
-      </c>
-      <c r="G13" s="34">
-        <v>13.633824980347788</v>
-      </c>
-      <c r="H13" s="34">
-        <v>14.956994359947711</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" s="9">
-        <v>13.6</v>
-      </c>
-      <c r="E14" s="34">
-        <v>12.890061791178303</v>
-      </c>
-      <c r="F14" s="35">
-        <v>13.5</v>
-      </c>
-      <c r="G14" s="34">
-        <v>11.552790317821325</v>
-      </c>
-      <c r="H14" s="34">
-        <v>10.216783741088173</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" s="9">
-        <v>7.1</v>
-      </c>
-      <c r="E15" s="34">
-        <v>10.162158334933165</v>
-      </c>
-      <c r="F15" s="35">
-        <v>9.6</v>
-      </c>
-      <c r="G15" s="34">
-        <v>8.8577873703751191</v>
-      </c>
-      <c r="H15" s="34">
-        <v>12.292586981974505</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="D16" s="9">
-        <v>1.3</v>
-      </c>
-      <c r="E16" s="34">
-        <v>2.77050377167726</v>
-      </c>
-      <c r="F16" s="35">
-        <v>2.7</v>
-      </c>
-      <c r="G16" s="34">
-        <v>2.0119585634773185</v>
-      </c>
-      <c r="H16" s="34">
-        <v>1.1904474908258234</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="D17" s="9">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="E17" s="34">
-        <v>17.739575752209294</v>
-      </c>
-      <c r="F17" s="35">
-        <v>14.7</v>
-      </c>
-      <c r="G17" s="34">
-        <v>15.717644949630531</v>
-      </c>
-      <c r="H17" s="34">
-        <v>13.453576190228787</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="D18" s="9">
-        <v>11.1</v>
-      </c>
-      <c r="E18" s="34">
-        <v>18.259395271843211</v>
-      </c>
-      <c r="F18" s="35">
-        <v>18.2</v>
-      </c>
-      <c r="G18" s="34">
-        <v>17.552936877359489</v>
-      </c>
-      <c r="H18" s="34">
-        <v>16.392955140305855</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="D19" s="9">
-        <v>59.9</v>
-      </c>
-      <c r="E19" s="34">
-        <v>74.995693103209206</v>
-      </c>
-      <c r="F19" s="34">
+      <c r="C31" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D31" s="18">
+        <v>6.1</v>
+      </c>
+      <c r="E31" s="30">
+        <v>23.388382003931209</v>
+      </c>
+      <c r="F31" s="30">
+        <v>25.632520507061443</v>
+      </c>
+      <c r="G31" s="30">
+        <v>20.90385957007895</v>
+      </c>
+      <c r="H31" s="30">
+        <v>20.462653221199133</v>
+      </c>
+      <c r="I31" s="30">
+        <v>17.11785730812262</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D32" s="18">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="E32" s="30">
+        <v>28.436680621272068</v>
+      </c>
+      <c r="F32" s="30">
+        <v>25.947289354959761</v>
+      </c>
+      <c r="G32" s="30">
+        <v>25.41472161500521</v>
+      </c>
+      <c r="H32" s="30">
+        <v>29.734731519164271</v>
+      </c>
+      <c r="I32" s="30">
+        <v>22.725888265024722</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="G19" s="34">
-        <v>68.912341718200238</v>
-      </c>
-      <c r="H19" s="34">
-        <v>73.546822306129386</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D20" s="9">
-        <v>32.1</v>
-      </c>
-      <c r="E20" s="34">
-        <v>38.30498217589782</v>
-      </c>
-      <c r="F20" s="35">
-        <v>35.1</v>
-      </c>
-      <c r="G20" s="34">
-        <v>31.366000352534748</v>
-      </c>
-      <c r="H20" s="34">
-        <v>33.802493306724259</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="D21" s="9"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="D22" s="9">
-        <v>6.8</v>
-      </c>
-      <c r="E22" s="30" t="s">
-        <v>87</v>
-      </c>
-      <c r="F22" s="30" t="s">
-        <v>87</v>
-      </c>
-      <c r="G22" s="30" t="s">
-        <v>87</v>
-      </c>
-      <c r="H22" s="30" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="D23" s="9">
-        <v>10.5</v>
-      </c>
-      <c r="E23" s="30" t="s">
-        <v>87</v>
-      </c>
-      <c r="F23" s="30" t="s">
-        <v>87</v>
-      </c>
-      <c r="G23" s="30" t="s">
-        <v>87</v>
-      </c>
-      <c r="H23" s="30" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="D24" s="9">
-        <v>11.4</v>
-      </c>
-      <c r="E24" s="30" t="s">
-        <v>87</v>
-      </c>
-      <c r="F24" s="30" t="s">
-        <v>87</v>
-      </c>
-      <c r="G24" s="30" t="s">
-        <v>87</v>
-      </c>
-      <c r="H24" s="30" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="D25" s="9">
-        <v>19.7</v>
-      </c>
-      <c r="E25" s="30" t="s">
-        <v>87</v>
-      </c>
-      <c r="F25" s="30" t="s">
-        <v>87</v>
-      </c>
-      <c r="G25" s="30" t="s">
-        <v>87</v>
-      </c>
-      <c r="H25" s="30" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="27" t="s">
-        <v>72</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="D26" s="9">
-        <v>38.9</v>
-      </c>
-      <c r="E26" s="30" t="s">
-        <v>87</v>
-      </c>
-      <c r="F26" s="30" t="s">
-        <v>87</v>
-      </c>
-      <c r="G26" s="30" t="s">
-        <v>87</v>
-      </c>
-      <c r="H26" s="30" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C27" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="D27" s="23"/>
-      <c r="E27" s="31"/>
-      <c r="F27" s="31"/>
-      <c r="G27" s="31"/>
-      <c r="H27" s="31"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="D28" s="17">
-        <v>1</v>
-      </c>
-      <c r="E28" s="30" t="s">
-        <v>87</v>
-      </c>
-      <c r="F28" s="30" t="s">
-        <v>87</v>
-      </c>
-      <c r="G28" s="30" t="s">
-        <v>87</v>
-      </c>
-      <c r="H28" s="30" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="B29" s="10" t="s">
+      <c r="B33" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="C29" s="11" t="s">
+      <c r="C33" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="D29" s="18">
-        <v>2.6</v>
-      </c>
-      <c r="E29" s="30" t="s">
-        <v>87</v>
-      </c>
-      <c r="F29" s="30" t="s">
-        <v>87</v>
-      </c>
-      <c r="G29" s="30" t="s">
-        <v>87</v>
-      </c>
-      <c r="H29" s="30" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="D30" s="18">
-        <v>6.1</v>
-      </c>
-      <c r="E30" s="30" t="s">
-        <v>87</v>
-      </c>
-      <c r="F30" s="30" t="s">
-        <v>87</v>
-      </c>
-      <c r="G30" s="30" t="s">
-        <v>87</v>
-      </c>
-      <c r="H30" s="30" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C31" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="D31" s="18">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="E31" s="30" t="s">
-        <v>87</v>
-      </c>
-      <c r="F31" s="30" t="s">
-        <v>87</v>
-      </c>
-      <c r="G31" s="30" t="s">
-        <v>87</v>
-      </c>
-      <c r="H31" s="30" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="B32" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C32" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="D32" s="22">
+      <c r="D33" s="22">
         <v>76.900000000000006</v>
       </c>
-      <c r="E32" s="32" t="s">
-        <v>87</v>
-      </c>
-      <c r="F32" s="32" t="s">
-        <v>87</v>
-      </c>
-      <c r="G32" s="32" t="s">
-        <v>87</v>
-      </c>
-      <c r="H32" s="32" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="24" x14ac:dyDescent="0.25">
-      <c r="A33" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B33" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="23"/>
-      <c r="B34" s="23"/>
-      <c r="C34" s="23"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="23"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="23"/>
-      <c r="B35" s="23"/>
-      <c r="C35" s="23"/>
+      <c r="E33" s="32">
+        <v>29.400431016666374</v>
+      </c>
+      <c r="F33" s="32">
+        <v>26.109187303095037</v>
+      </c>
+      <c r="G33" s="32">
+        <v>23.244427556778504</v>
+      </c>
+      <c r="H33" s="32">
+        <v>24.71016418757468</v>
+      </c>
+      <c r="I33" s="32">
+        <v>27.767655316422797</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A34" s="45" t="s">
+        <v>101</v>
+      </c>
+      <c r="B34" s="45" t="s">
+        <v>102</v>
+      </c>
+      <c r="C34" s="45" t="s">
+        <v>103</v>
+      </c>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+    </row>
+    <row r="35" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="46" t="s">
+        <v>97</v>
+      </c>
+      <c r="B35" s="46" t="s">
+        <v>98</v>
+      </c>
+      <c r="C35" s="46" t="s">
+        <v>99</v>
+      </c>
       <c r="D35" s="23"/>
       <c r="E35" s="23"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="23"/>
+      <c r="B36" s="23"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="D4" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>